--- a/final_tables/supplemental/SuppTable2_BLAST_table_calici.xlsx
+++ b/final_tables/supplemental/SuppTable2_BLAST_table_calici.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/final_tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/final_tables/supplemental/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4546BB27-5703-CC45-BA5F-5E7DF9CF32EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0324F189-40F2-8C4F-A34B-12FA36F0EE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6760" yWindow="740" windowWidth="22640" windowHeight="17360" xr2:uid="{F16FD504-3439-9D46-8A08-3757F6095032}"/>
   </bookViews>
@@ -36,71 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
-  <si>
-    <t>OQ818319</t>
-  </si>
-  <si>
-    <t>Eidolon dupreanum sapovirus 1</t>
-  </si>
-  <si>
-    <t>OQ818340</t>
-  </si>
-  <si>
-    <t>Eidolon dupreanum sapovirus 2</t>
-  </si>
-  <si>
-    <t>OQ818345</t>
-  </si>
-  <si>
-    <t>Rousettus madagascariensis sapovirus 1</t>
-  </si>
-  <si>
-    <t>OQ818347</t>
-  </si>
-  <si>
-    <t>Rousettus madagascariensis sapovirus 2</t>
-  </si>
-  <si>
-    <t>OQ818348</t>
-  </si>
-  <si>
-    <t>Rousettus madagascariensis sapovirus 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>PP766459</t>
   </si>
   <si>
-    <t>PP766460</t>
-  </si>
-  <si>
-    <t>Eidolon dupreanum sapovirus 4</t>
-  </si>
-  <si>
-    <t>PP766461</t>
-  </si>
-  <si>
-    <t>Eidolon dupreanum sapovirus 3</t>
-  </si>
-  <si>
-    <t>PP766468</t>
-  </si>
-  <si>
-    <t>PP766470</t>
-  </si>
-  <si>
-    <t>PP766473</t>
-  </si>
-  <si>
-    <t>PP766474</t>
-  </si>
-  <si>
-    <t>PP766476</t>
-  </si>
-  <si>
-    <t>PP766477</t>
-  </si>
-  <si>
     <t>AQQ78883.1</t>
   </si>
   <si>
@@ -110,33 +50,9 @@
     <t>KX759619.1</t>
   </si>
   <si>
-    <t>WBG95506.1</t>
-  </si>
-  <si>
-    <t>WBV74378.1</t>
-  </si>
-  <si>
-    <t>LC380411.1</t>
-  </si>
-  <si>
-    <t>WGC86364.1</t>
-  </si>
-  <si>
-    <t>OQ709197.1</t>
-  </si>
-  <si>
     <t>KX759623.1</t>
   </si>
   <si>
-    <t>KU712497.1</t>
-  </si>
-  <si>
-    <t>PP554904.1</t>
-  </si>
-  <si>
-    <t>KX907730.1</t>
-  </si>
-  <si>
     <t>Accession</t>
   </si>
   <si>
@@ -149,9 +65,6 @@
     <t>BLASTn accession</t>
   </si>
   <si>
-    <t>no result</t>
-  </si>
-  <si>
     <t>BLASTx coverage (%)</t>
   </si>
   <si>
@@ -162,6 +75,99 @@
   </si>
   <si>
     <t>BLASTn identity (%)</t>
+  </si>
+  <si>
+    <t>OQ818319*</t>
+  </si>
+  <si>
+    <t>E. dupreanum sapovirus 1</t>
+  </si>
+  <si>
+    <t>OQ818340*</t>
+  </si>
+  <si>
+    <t>E. dupreanum sapovirus 2</t>
+  </si>
+  <si>
+    <t>PP766461*</t>
+  </si>
+  <si>
+    <t>E. dupreanum sapovirus 3</t>
+  </si>
+  <si>
+    <t>PP766460*</t>
+  </si>
+  <si>
+    <t>E. dupreanum sapovirus 4</t>
+  </si>
+  <si>
+    <t>No result</t>
+  </si>
+  <si>
+    <t>OQ818345*</t>
+  </si>
+  <si>
+    <t>R. madagascariensis sapovirus 1</t>
+  </si>
+  <si>
+    <t>XBH24168.1</t>
+  </si>
+  <si>
+    <t>OQ818347*</t>
+  </si>
+  <si>
+    <t>R. madagascariensis sapovirus 2</t>
+  </si>
+  <si>
+    <t>XBH24156.1</t>
+  </si>
+  <si>
+    <t>PP712001.1</t>
+  </si>
+  <si>
+    <t>PP766470*</t>
+  </si>
+  <si>
+    <t>XBH24177.1</t>
+  </si>
+  <si>
+    <t>PP712015.1</t>
+  </si>
+  <si>
+    <t>PP766473*</t>
+  </si>
+  <si>
+    <t>PP766474*</t>
+  </si>
+  <si>
+    <t>PP712026.1</t>
+  </si>
+  <si>
+    <t>PP766476*</t>
+  </si>
+  <si>
+    <t>PP766477*</t>
+  </si>
+  <si>
+    <t>XBH24178.1</t>
+  </si>
+  <si>
+    <t>OQ818348*</t>
+  </si>
+  <si>
+    <t>R. madagascariensis sapovirus 3</t>
+  </si>
+  <si>
+    <t>XBH24163.1</t>
+  </si>
+  <si>
+    <t>PP712006.1</t>
+  </si>
+  <si>
+    <t>PP766468*</t>
+  </si>
+  <si>
+    <t>PP712033.1</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,36 +678,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4">
         <v>90</v>
@@ -710,7 +716,7 @@
         <v>67.180000000000007</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
@@ -719,345 +725,345 @@
         <v>79.819999999999993</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4">
+        <v>77</v>
+      </c>
+      <c r="D3" s="8">
+        <v>99.9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>79.819999999999993</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>99</v>
-      </c>
-      <c r="D3" s="8">
-        <v>67.97</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4">
-        <v>63</v>
-      </c>
-      <c r="G3" s="8">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D4" s="8">
-        <v>64.23</v>
+        <v>67.97</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>63</v>
+      </c>
+      <c r="G4" s="8">
+        <v>71.400000000000006</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D5" s="8">
-        <v>75.8</v>
+        <v>90.13</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="G5" s="8">
-        <v>72.44</v>
+        <v>80.7</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D6" s="8">
-        <v>81.38</v>
+        <v>75.260000000000005</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4">
-        <v>89</v>
-      </c>
-      <c r="G6" s="8">
-        <v>74.92</v>
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="D7" s="8">
-        <v>99.9</v>
+        <v>68.19</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="8">
-        <v>79.819999999999993</v>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D8" s="8">
-        <v>75.260000000000005</v>
+        <v>89.63</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="8">
+        <v>77.94</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C9" s="4">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8">
-        <v>90.13</v>
+        <v>90.86</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G9" s="8">
-        <v>80.7</v>
+        <v>78.510000000000005</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C10" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="8">
-        <v>78.75</v>
+        <v>90.59</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="4">
+        <v>97</v>
+      </c>
+      <c r="G10" s="8">
+        <v>77.28</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C11" s="4">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" s="8">
-        <v>79.010000000000005</v>
+        <v>94.55</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G11" s="8">
-        <v>86.67</v>
+        <v>71.739999999999995</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4">
         <v>99</v>
       </c>
       <c r="D12" s="8">
-        <v>80.86</v>
+        <v>86.05</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G12" s="8">
-        <v>100</v>
+        <v>73.709999999999994</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D13" s="8">
-        <v>77.25</v>
+        <v>81.319999999999993</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F13" s="4">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G13" s="8">
-        <v>94.44</v>
+        <v>76.22</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C14" s="4">
         <v>99</v>
       </c>
       <c r="D14" s="8">
-        <v>70.94</v>
+        <v>84.12</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F14" s="4">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="G14" s="8">
-        <v>73.709999999999994</v>
+        <v>75</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C15" s="6">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="D15" s="9">
-        <v>80.510000000000005</v>
+        <v>85</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="F15" s="6">
+        <v>87</v>
+      </c>
+      <c r="G15" s="9">
+        <v>75.67</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
